--- a/db/shoe-data.xlsx
+++ b/db/shoe-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27640" windowHeight="13920"/>
+    <workbookView windowWidth="27680" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -144,8 +144,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,6 +167,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -174,9 +182,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,33 +266,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,57 +280,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -290,187 +290,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,39 +489,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,11 +510,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,150 +570,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1054,10 +1054,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1281,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>90</v>
@@ -1301,7 +1301,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>90</v>
@@ -1321,7 +1321,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>90</v>
@@ -1332,22 +1332,22 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1361,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>80</v>
@@ -1372,22 +1372,22 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1401,7 +1401,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>90</v>
@@ -1421,7 +1421,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>90</v>
@@ -1432,27 +1432,27 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E19">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1461,7 +1461,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>80</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1481,7 +1481,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>80</v>
@@ -1501,7 +1501,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>80</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1521,7 +1521,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>80</v>
@@ -1541,7 +1541,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>80</v>
@@ -1561,7 +1561,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>80</v>
@@ -1581,7 +1581,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E26">
         <v>80</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1601,7 +1601,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>80</v>
@@ -1621,7 +1621,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E28">
         <v>80</v>
@@ -1641,7 +1641,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>80</v>
@@ -1655,19 +1655,19 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E30">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1675,19 +1675,19 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E31">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1710,187 +1710,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33">
-        <v>90</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34">
-        <v>90</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35">
-        <v>90</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36">
-        <v>90</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37">
-        <v>90</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38">
-        <v>90</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39">
-        <v>90</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40">
-        <v>90</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41">
-        <v>90</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:F41">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
